--- a/documentation/Equipment_PRICELIST-DRAFT.xlsx
+++ b/documentation/Equipment_PRICELIST-DRAFT.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\SWHS-RaspPiJavaRobotics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4DEB49-E0E9-4AB9-9617-1F8E719F4347}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243508B6-4891-4672-9E6E-6CAE91A249AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="630" windowWidth="24405" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EQUIPMENT LIST" sheetId="1" r:id="rId1"/>
-    <sheet name="About" sheetId="3" r:id="rId2"/>
-    <sheet name="Audio Console Cost Comparison" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="EQUIPMENT LIST AUTO CALCULATOR" sheetId="5" r:id="rId1"/>
+    <sheet name="EQUIPMENT LIST" sheetId="1" r:id="rId2"/>
+    <sheet name="About" sheetId="3" r:id="rId3"/>
+    <sheet name="Audio Console Cost Comparison" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EQUIPMENT LIST'!$A$1:$O$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'EQUIPMENT LIST'!$A$1:$O$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EQUIPMENT LIST AUTO CALCULATOR'!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +34,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gabriel Pass</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D17FB0B5-4B50-49DD-8C23-BCA3725C783A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mark this field with any character to exclude a Category.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gabriel Pass</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{910A4D4A-B7AF-49A5-B4BE-3D1DF3231B63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mark this field with any character to exclude a Category.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t xml:space="preserve">EXCLUDE  ⇓ </t>
   </si>
@@ -45,9 +95,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Recomended</t>
   </si>
   <si>
     <t>Cost</t>
@@ -69,9 +116,6 @@
   </si>
   <si>
     <t>Essentials for basic operation</t>
-  </si>
-  <si>
-    <t>Required for eventually for full operation.</t>
   </si>
   <si>
     <t>Optional recommended</t>
@@ -119,12 +163,6 @@
     <t>Application</t>
   </si>
   <si>
-    <t>Equipment Components &amp; Pricing</t>
-  </si>
-  <si>
-    <t>NAYSC Video Editing Computer System</t>
-  </si>
-  <si>
     <t>This document can be used to calculate updates to products and pricing options as needed.  
 As an Excel spreadsheet, version tracking on GitHub is limited.</t>
   </si>
@@ -150,25 +188,158 @@
     <t>Camera</t>
   </si>
   <si>
-    <t>Pi 4 System</t>
-  </si>
-  <si>
     <t>1 Needed in future</t>
   </si>
   <si>
     <t>Product &amp; URL</t>
+  </si>
+  <si>
+    <t>Matek V3.1 PDB Power Distribution Board</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>PCA9685 16 Channel 12 Bit PWM Servo Driver</t>
+  </si>
+  <si>
+    <t>Arm Servo Control</t>
+  </si>
+  <si>
+    <t>L298N Motor Drive Controller Board Module Dual H Bridge DC Stepper</t>
+  </si>
+  <si>
+    <t>Drive Motor Control</t>
+  </si>
+  <si>
+    <t>SunFounder 9g Metal Servo Gear RC Robot SF180M (Digital Semi-Metal Micro Servo Motor) 2pack 2x</t>
+  </si>
+  <si>
+    <t>Arm Servo Motor</t>
+  </si>
+  <si>
+    <t>Uxcell 12V DC 200RPM Gear Motor Micro Speed Reduction Geared Motor (Choose your Motor Speed)</t>
+  </si>
+  <si>
+    <t>Drive Motor</t>
+  </si>
+  <si>
+    <t>Pololu 1083 Universal Aluminum MOUNTING HUB for 6mm Shaft Pair</t>
+  </si>
+  <si>
+    <t>Wheel Mounting Hub</t>
+  </si>
+  <si>
+    <t>Drive Train</t>
+  </si>
+  <si>
+    <t>BQLZR Black Front Rear Pentagram Plastic Wheel Rims + High Grip Rubber Tires Pack of 4</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Casters</t>
+  </si>
+  <si>
+    <t>Ovonic 11.1V 2200mAh 3S 50C Lipo Battery with Deans Plug</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Male T-Plug / T-Connectors Deans Style with 10cm 14awg Wire</t>
+  </si>
+  <si>
+    <t>Battery Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23212 LiPo Voltage Checker + Warning Buzzer </t>
+  </si>
+  <si>
+    <t>Battery Monitor</t>
+  </si>
+  <si>
+    <t>iMAX B6 Lipo RC Battery Balance Digital Charger</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>Female to Female 4 and 8 Inch Solderless Ribbon Dupont-Compatible Jumper Wires for Breadboard</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>SWHS-RaspPiJavaRobotics  -  Price Calculator</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Number of Robots to Build :</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Pi 4 4GB</t>
+  </si>
+  <si>
+    <t>Pi 4 1GB</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B (1GB)</t>
+  </si>
+  <si>
+    <t>Motor Ctrl</t>
+  </si>
+  <si>
+    <t>Arm Servos</t>
+  </si>
+  <si>
+    <t>2 per</t>
+  </si>
+  <si>
+    <t>3 per</t>
+  </si>
+  <si>
+    <t>Required for full operation.</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>3D Print your own</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>bayite 4 Pack 1" Low Profile Casters Wheels Soft Rubber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -248,12 +419,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -261,6 +426,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -484,7 +662,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -633,9 +811,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -658,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -699,7 +871,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,44 +883,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="130">
     <dxf>
       <border>
         <top style="thin">
@@ -791,6 +975,888 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1115,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BA633F-99B5-4770-99A5-53846005929A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1123,7 +2189,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1133,11 +2199,11 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="51" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="21" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="83" customWidth="1"/>
     <col min="11" max="11" width="0.28515625" customWidth="1"/>
     <col min="12" max="12" width="3.85546875" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -1145,77 +2211,2910 @@
     <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56"/>
-      <c r="B1" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="93">
+        <v>5</v>
+      </c>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="60"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="61">
+      <c r="M1" s="60">
         <f>SUMIF(L:L,"",J:J)</f>
-        <v>563.4</v>
-      </c>
-      <c r="N1" s="62" t="s">
+        <v>1410.4300000000003</v>
+      </c>
+      <c r="N1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="71">
+        <v>46.83</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" ref="H3:H9" si="0">$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="75">
+        <f t="shared" ref="I3:I50" si="1">IF(H3=0,"",G3*H3)</f>
+        <v>234.14999999999998</v>
+      </c>
+      <c r="J3" s="79">
+        <f>IF(ISBLANK(A3),"",SUM(I3:I$50)-SUM(J4:J$50))</f>
+        <v>234.14999999999986</v>
+      </c>
+      <c r="K3" s="27" t="b">
+        <f t="shared" ref="K3:K50" si="2">OR(NOT(ISBLANK(L3)),AND(K2=TRUE,NOT(ISNUMBER(J3))))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="98"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="33">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="71">
+        <v>67.91</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="75">
+        <f t="shared" si="1"/>
+        <v>339.54999999999995</v>
+      </c>
+      <c r="J4" s="79">
+        <f>IF(ISBLANK(A4),"",SUM(I4:I$50)-SUM(J5:J$50))</f>
+        <v>339.55000000000018</v>
+      </c>
+      <c r="K4" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="71">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="75">
+        <f t="shared" si="1"/>
+        <v>99.949999999999989</v>
+      </c>
+      <c r="J5" s="79">
+        <f>IF(ISBLANK(A5),"",SUM(I5:I$50)-SUM(J6:J$50))</f>
+        <v>99.950000000000045</v>
+      </c>
+      <c r="K5" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="71">
+        <v>24.78</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="75">
+        <f t="shared" si="1"/>
+        <v>123.9</v>
+      </c>
+      <c r="J6" s="79">
+        <f>IF(ISBLANK(A6),"",SUM(I6:I$50)-SUM(J7:J$50))</f>
+        <v>123.89999999999986</v>
+      </c>
+      <c r="K6" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="71">
+        <v>10.99</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="75">
+        <f t="shared" si="1"/>
+        <v>54.95</v>
+      </c>
+      <c r="J7" s="79">
+        <f>IF(ISBLANK(A7),"",SUM(I7:I$50)-SUM(J8:J$50))</f>
+        <v>89.400000000000091</v>
+      </c>
+      <c r="K7" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="C8" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="71">
+        <v>6.89</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="75">
+        <f t="shared" si="1"/>
+        <v>34.449999999999996</v>
+      </c>
+      <c r="J8" s="79" t="str">
+        <f>IF(ISBLANK(A8),"",SUM(I8:I$50)-SUM(J9:J$50))</f>
+        <v/>
+      </c>
+      <c r="K8" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="71">
+        <v>8.99</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="75">
+        <f t="shared" ref="I9" si="3">IF(H9=0,"",G9*H9)</f>
+        <v>44.95</v>
+      </c>
+      <c r="J9" s="79">
+        <f>IF(ISBLANK(A9),"",SUM(I9:I$50)-SUM(J10:J$50))</f>
+        <v>148.87000000000012</v>
+      </c>
+      <c r="K9" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="71">
+        <v>12.99</v>
+      </c>
+      <c r="H10" s="32">
+        <f>ROUNDUP($G$1*3/2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="75">
+        <f t="shared" si="1"/>
+        <v>103.92</v>
+      </c>
+      <c r="J10" s="79" t="str">
+        <f>IF(ISBLANK(A10),"",SUM(I10:I$50)-SUM(J11:J$50))</f>
+        <v/>
+      </c>
+      <c r="K10" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="71">
+        <v>15.98</v>
+      </c>
+      <c r="H11" s="32">
+        <f>$G$1*2</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="75">
+        <f t="shared" si="1"/>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="J11" s="79">
+        <f>IF(ISBLANK(A11),"",SUM(I11:I$50)-SUM(J12:J$50))</f>
+        <v>293.98</v>
+      </c>
+      <c r="K11" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="71">
+        <v>13.46</v>
+      </c>
+      <c r="H12" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="75">
+        <f t="shared" si="1"/>
+        <v>67.300000000000011</v>
+      </c>
+      <c r="J12" s="79" t="str">
+        <f>IF(ISBLANK(A12),"",SUM(I12:I$50)-SUM(J13:J$50))</f>
+        <v/>
+      </c>
+      <c r="K12" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="71">
+        <v>14.3</v>
+      </c>
+      <c r="H13" s="32">
+        <f>ROUNDUP($G$1/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="75">
+        <f t="shared" si="1"/>
+        <v>42.900000000000006</v>
+      </c>
+      <c r="J13" s="79" t="str">
+        <f>IF(ISBLANK(A13),"",SUM(I13:I$50)-SUM(J14:J$50))</f>
+        <v/>
+      </c>
+      <c r="K13" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="71">
+        <v>11.99</v>
+      </c>
+      <c r="H14" s="32">
+        <f>ROUNDUP($G$1/4,0)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="I14" s="75">
+        <f t="shared" si="1"/>
+        <v>23.98</v>
+      </c>
+      <c r="J14" s="79" t="str">
+        <f>IF(ISBLANK(A14),"",SUM(I14:I$50)-SUM(J15:J$50))</f>
+        <v/>
+      </c>
+      <c r="K14" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="71">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="H15" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="75">
+        <f t="shared" si="1"/>
+        <v>89.949999999999989</v>
+      </c>
+      <c r="J15" s="79">
+        <f>IF(ISBLANK(A15),"",SUM(I15:I$50)-SUM(J16:J$50))</f>
+        <v>314.77999999999997</v>
+      </c>
+      <c r="K15" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="34">
+        <v>0</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="72">
+        <v>9.98</v>
+      </c>
+      <c r="H16" s="32">
+        <f>ROUNDUP($G$1/5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="75">
+        <f t="shared" si="1"/>
+        <v>9.98</v>
+      </c>
+      <c r="J16" s="79" t="str">
+        <f>IF(ISBLANK(A16),"",SUM(I16:I$50)-SUM(J17:J$50))</f>
+        <v/>
+      </c>
+      <c r="K16" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="72">
+        <v>4.99</v>
+      </c>
+      <c r="H17" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="75">
+        <f t="shared" si="1"/>
+        <v>24.950000000000003</v>
+      </c>
+      <c r="J17" s="79" t="str">
+        <f>IF(ISBLANK(A17),"",SUM(I17:I$50)-SUM(J18:J$50))</f>
+        <v/>
+      </c>
+      <c r="K17" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="72">
+        <v>31.99</v>
+      </c>
+      <c r="H18" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="75">
+        <f t="shared" si="1"/>
+        <v>159.94999999999999</v>
+      </c>
+      <c r="J18" s="79" t="str">
+        <f>IF(ISBLANK(A18),"",SUM(I18:I$50)-SUM(J19:J$50))</f>
+        <v/>
+      </c>
+      <c r="K18" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="72">
+        <v>5.99</v>
+      </c>
+      <c r="H19" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="75">
+        <f t="shared" si="1"/>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="J19" s="79" t="str">
+        <f>IF(ISBLANK(A19),"",SUM(I19:I$50)-SUM(J20:J$50))</f>
+        <v/>
+      </c>
+      <c r="K19" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="34">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="72">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f>$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="I20" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="79">
+        <f>IF(ISBLANK(A20),"",SUM(I20:I$50)-SUM(J21:J$50))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="79" t="str">
+        <f>IF(ISBLANK(A21),"",SUM(I21:I$50)-SUM(J22:J$50))</f>
+        <v/>
+      </c>
+      <c r="K21" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="79" t="str">
+        <f>IF(ISBLANK(A22),"",SUM(I22:I$50)-SUM(J23:J$50))</f>
+        <v/>
+      </c>
+      <c r="K22" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="79" t="str">
+        <f>IF(ISBLANK(A23),"",SUM(I23:I$50)-SUM(J24:J$50))</f>
+        <v/>
+      </c>
+      <c r="K23" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="79" t="str">
+        <f>IF(ISBLANK(A24),"",SUM(I24:I$50)-SUM(J25:J$50))</f>
+        <v/>
+      </c>
+      <c r="K24" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="79" t="str">
+        <f>IF(ISBLANK(A25),"",SUM(I25:I$50)-SUM(J26:J$50))</f>
+        <v/>
+      </c>
+      <c r="K25" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J26" s="79" t="str">
+        <f>IF(ISBLANK(A26),"",SUM(I26:I$50)-SUM(J27:J$50))</f>
+        <v/>
+      </c>
+      <c r="K26" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J27" s="79" t="str">
+        <f>IF(ISBLANK(A27),"",SUM(I27:I$50)-SUM(J28:J$50))</f>
+        <v/>
+      </c>
+      <c r="K27" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J28" s="79" t="str">
+        <f>IF(ISBLANK(A28),"",SUM(I28:I$50)-SUM(J29:J$50))</f>
+        <v/>
+      </c>
+      <c r="K28" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" s="79" t="str">
+        <f>IF(ISBLANK(A29),"",SUM(I29:I$50)-SUM(J30:J$50))</f>
+        <v/>
+      </c>
+      <c r="K29" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" s="79" t="str">
+        <f>IF(ISBLANK(A30),"",SUM(I30:I$50)-SUM(J31:J$50))</f>
+        <v/>
+      </c>
+      <c r="K30" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="28"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J31" s="79" t="str">
+        <f>IF(ISBLANK(A31),"",SUM(I31:I$50)-SUM(J32:J$50))</f>
+        <v/>
+      </c>
+      <c r="K31" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="28"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J32" s="79" t="str">
+        <f>IF(ISBLANK(A32),"",SUM(I32:I$50)-SUM(J33:J$50))</f>
+        <v/>
+      </c>
+      <c r="K32" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" s="79" t="str">
+        <f>IF(ISBLANK(A33),"",SUM(I33:I$50)-SUM(J34:J$50))</f>
+        <v/>
+      </c>
+      <c r="K33" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J34" s="79" t="str">
+        <f>IF(ISBLANK(A34),"",SUM(I34:I$50)-SUM(J35:J$50))</f>
+        <v/>
+      </c>
+      <c r="K34" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="79" t="str">
+        <f>IF(ISBLANK(A35),"",SUM(I35:I$50)-SUM(J36:J$50))</f>
+        <v/>
+      </c>
+      <c r="K35" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="79" t="str">
+        <f>IF(ISBLANK(A36),"",SUM(I36:I$50)-SUM(J37:J$50))</f>
+        <v/>
+      </c>
+      <c r="K36" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="28"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="79" t="str">
+        <f>IF(ISBLANK(A37),"",SUM(I37:I$50)-SUM(J38:J$50))</f>
+        <v/>
+      </c>
+      <c r="K37" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" s="79" t="str">
+        <f>IF(ISBLANK(A38),"",SUM(I38:I$50)-SUM(J39:J$50))</f>
+        <v/>
+      </c>
+      <c r="K38" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" s="79" t="str">
+        <f>IF(ISBLANK(A39),"",SUM(I39:I$50)-SUM(J40:J$50))</f>
+        <v/>
+      </c>
+      <c r="K39" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="28"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+    </row>
+    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J40" s="79" t="str">
+        <f>IF(ISBLANK(A40),"",SUM(I40:I$50)-SUM(J41:J$50))</f>
+        <v/>
+      </c>
+      <c r="K40" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="28"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+    </row>
+    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J41" s="79" t="str">
+        <f>IF(ISBLANK(A41),"",SUM(I41:I$50)-SUM(J42:J$50))</f>
+        <v/>
+      </c>
+      <c r="K41" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="28"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+    </row>
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J42" s="79" t="str">
+        <f>IF(ISBLANK(A42),"",SUM(I42:I$50)-SUM(J43:J$50))</f>
+        <v/>
+      </c>
+      <c r="K42" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="28"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+    </row>
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J43" s="79" t="str">
+        <f>IF(ISBLANK(A43),"",SUM(I43:I$50)-SUM(J44:J$50))</f>
+        <v/>
+      </c>
+      <c r="K43" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="28"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J44" s="79" t="str">
+        <f>IF(ISBLANK(A44),"",SUM(I44:I$50)-SUM(J45:J$50))</f>
+        <v/>
+      </c>
+      <c r="K44" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="28"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+    </row>
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J45" s="79" t="str">
+        <f>IF(ISBLANK(A45),"",SUM(I45:I$50)-SUM(J46:J$50))</f>
+        <v/>
+      </c>
+      <c r="K45" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="28"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+    </row>
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J46" s="79" t="str">
+        <f>IF(ISBLANK(A46),"",SUM(I46:I$50)-SUM(J47:J$50))</f>
+        <v/>
+      </c>
+      <c r="K46" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="28"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+    </row>
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J47" s="79" t="str">
+        <f>IF(ISBLANK(A47),"",SUM(I47:I$50)-SUM(J48:J$50))</f>
+        <v/>
+      </c>
+      <c r="K47" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+    </row>
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" s="79" t="str">
+        <f>IF(ISBLANK(A48),"",SUM(I48:I$50)-SUM(J49:J$50))</f>
+        <v/>
+      </c>
+      <c r="K48" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="28"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+    </row>
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="29"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J49" s="79" t="str">
+        <f>IF(ISBLANK(A49),"",SUM(I49:I$50)-SUM(J50:J$50))</f>
+        <v/>
+      </c>
+      <c r="K49" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="28"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+    </row>
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" s="79" t="str">
+        <f>IF(ISBLANK(A50),"",SUM(I50:I$50)-SUM(J$50:J51))</f>
+        <v/>
+      </c>
+      <c r="K50" s="27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="28"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+    </row>
+    <row r="51" spans="1:30" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+    </row>
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+    </row>
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+    </row>
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="55"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="55"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="55"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="55"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="55"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L2:L54">
+    <cfRule type="containsBlanks" dxfId="129" priority="69">
+      <formula>LEN(TRIM(L2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:J50">
+    <cfRule type="expression" dxfId="128" priority="63">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="64">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="126" priority="59">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="60">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="61">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="62">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="122" priority="58">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="121" priority="57">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="120" priority="47">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="48">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="49">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="50">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="116" priority="46">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="115" priority="45">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B19">
+    <cfRule type="expression" dxfId="114" priority="41">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="42">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="43">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="44">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B19">
+    <cfRule type="expression" dxfId="110" priority="40">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B19">
+    <cfRule type="expression" dxfId="109" priority="39">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="expression" dxfId="108" priority="35">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="36">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="37">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="38">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
+    <cfRule type="expression" dxfId="104" priority="34">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23 C23:H23">
+    <cfRule type="expression" dxfId="103" priority="33">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="102" priority="29">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="30">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="31">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="32">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="98" priority="28">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="97" priority="27">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="expression" dxfId="96" priority="23">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="24">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="25">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="26">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8">
+    <cfRule type="expression" dxfId="92" priority="22">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8 A8">
+    <cfRule type="expression" dxfId="91" priority="21">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="90" priority="17">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="18">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="19">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="20">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="86" priority="16">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="85" priority="15">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="84" priority="14">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="83" priority="13">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="expression" dxfId="82" priority="9">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="10">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="11">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="12">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H9">
+    <cfRule type="expression" dxfId="78" priority="8">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 C9:H9">
+    <cfRule type="expression" dxfId="77" priority="7">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="76" priority="3">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="4">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="5">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="6">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="72" priority="2">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="71" priority="1">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E50">
+    <cfRule type="expression" dxfId="70" priority="65">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="66">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="67">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="68">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Raspberry Pi 4 Model B (4GB)" xr:uid="{86803419-EEAF-4090-A2C8-7FB49AD3F5F3}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{9F2E52FC-25A6-457F-8CBA-64C9EAFA521D}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{A9EB6C75-8EAA-4DE5-9DA4-3C79C70A1281}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{F90D2967-97AE-4540-A2ED-80C9E03FA906}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{1521D056-32F2-4DC8-A5CB-7CFB8A0A8495}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{97E78CF4-796B-421C-94FE-1272C3FCC5E0}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{D7080EB8-D5D8-4DC7-9603-B2DC845F9311}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{F7E6C94F-4FB5-47FD-A2A5-1EB0E431BE79}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{7ADC09A4-201B-4F5A-9DD6-8E9818ABA91F}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{A8E7F242-4B1E-4F66-B489-7EA92C72BAC6}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{533BA535-B89A-419E-804B-8D376C946F6C}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{1DD6D3CE-F441-437B-989F-16624CC23304}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{6E779CA4-585C-4E19-9B10-A7C609700593}"/>
+    <hyperlink ref="B19" r:id="rId14" display="https://www.amazon.com/GenBasic-Solderless-Dupont-Compatible-Breadboard-Prototyping/dp/B01L5ULRUA/ref=sr_1_3?keywords=Breadboard+Jumper+Wire+female+to+female&amp;qid=1558736832&amp;s=gateway&amp;sr=8-3" xr:uid="{96C1F31B-B3A9-40DF-8FA5-6A3DBCEE4F39}"/>
+    <hyperlink ref="B14" r:id="rId15" display="4 Pack 1&quot; Caster Wheels Swivel Plate w/Break Casters On Black Polyurethane Wheels" xr:uid="{0F228161-4FD3-49A8-B3C0-FB150EA4989F}"/>
+    <hyperlink ref="B8" r:id="rId16" xr:uid="{B007DF3F-1AA5-4742-B66A-74C21690230D}"/>
+    <hyperlink ref="B9" r:id="rId17" xr:uid="{FDFA98F0-A48D-40BF-9A8B-2E1BEC1C2957}"/>
+  </hyperlinks>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId18"/>
+  <ignoredErrors>
+    <ignoredError sqref="H16" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="51" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="83" customWidth="1"/>
+    <col min="11" max="11" width="0.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56"/>
+      <c r="B1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="60">
+        <f>SUMIF(L:L,"",J:J)</f>
+        <v>1383.4500000000003</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="J2" s="70" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>8</v>
       </c>
       <c r="K2" s="32"/>
       <c r="L2" s="3"/>
@@ -1240,43 +5139,45 @@
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="88"/>
+        <v>68</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="85"/>
       <c r="E3" s="33">
         <v>0</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="73">
-        <v>67.91</v>
+      <c r="G3" s="71">
+        <v>46.83</v>
       </c>
       <c r="H3" s="32">
         <v>5</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I50" si="0">IF(H3=0,"",G3*H3)</f>
-        <v>339.54999999999995</v>
-      </c>
-      <c r="J3" s="81">
+        <v>234.14999999999998</v>
+      </c>
+      <c r="J3" s="79">
         <f>IF(ISBLANK(A3),"",SUM(I3:I$50)-SUM(J4:J$50))</f>
-        <v>563.4</v>
+        <v>234.14999999999986</v>
       </c>
       <c r="K3" s="27" t="b">
         <f t="shared" ref="K3:K50" si="1">OR(NOT(ISBLANK(L3)),AND(K2=TRUE,NOT(ISNUMBER(J3))))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>62</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="94"/>
+      <c r="N3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="98"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
@@ -1294,31 +5195,33 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="88"/>
+      <c r="A4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="85"/>
       <c r="E4" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="73">
-        <v>19.989999999999998</v>
+      <c r="G4" s="71">
+        <v>67.91</v>
       </c>
       <c r="H4" s="32">
         <v>5</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="75">
         <f t="shared" si="0"/>
-        <v>99.949999999999989</v>
-      </c>
-      <c r="J4" s="81" t="str">
+        <v>339.54999999999995</v>
+      </c>
+      <c r="J4" s="79">
         <f>IF(ISBLANK(A4),"",SUM(I4:I$50)-SUM(J5:J$50))</f>
-        <v/>
+        <v>339.55000000000018</v>
       </c>
       <c r="K4" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1327,10 +5230,10 @@
       <c r="L4" s="28"/>
       <c r="M4" s="2"/>
       <c r="N4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
@@ -1349,31 +5252,33 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="88"/>
+      <c r="A5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="85"/>
       <c r="E5" s="33">
         <v>0</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="73">
-        <v>24.78</v>
+      <c r="G5" s="71">
+        <v>19.989999999999998</v>
       </c>
       <c r="H5" s="32">
         <v>5</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="75">
         <f t="shared" si="0"/>
-        <v>123.9</v>
-      </c>
-      <c r="J5" s="81" t="str">
+        <v>99.949999999999989</v>
+      </c>
+      <c r="J5" s="79">
         <f>IF(ISBLANK(A5),"",SUM(I5:I$50)-SUM(J6:J$50))</f>
-        <v/>
+        <v>99.950000000000045</v>
       </c>
       <c r="K5" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1382,10 +5287,10 @@
       <c r="L5" s="28"/>
       <c r="M5" s="2"/>
       <c r="N5" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
@@ -1404,21 +5309,33 @@
       <c r="AD5" s="2"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="33"/>
+      <c r="A6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="77" t="str">
+      <c r="G6" s="71">
+        <v>24.78</v>
+      </c>
+      <c r="H6" s="32">
+        <v>5</v>
+      </c>
+      <c r="I6" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="81" t="str">
+        <v>123.9</v>
+      </c>
+      <c r="J6" s="79">
         <f>IF(ISBLANK(A6),"",SUM(I6:I$50)-SUM(J7:J$50))</f>
-        <v/>
+        <v>123.89999999999986</v>
       </c>
       <c r="K6" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1430,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
@@ -1449,21 +5366,33 @@
       <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="77" t="str">
+      <c r="G7" s="71">
+        <v>10.99</v>
+      </c>
+      <c r="H7" s="32">
+        <v>5</v>
+      </c>
+      <c r="I7" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="81" t="str">
+        <v>54.95</v>
+      </c>
+      <c r="J7" s="79">
         <f>IF(ISBLANK(A7),"",SUM(I7:I$50)-SUM(J8:J$50))</f>
-        <v/>
+        <v>89.400000000000091</v>
       </c>
       <c r="K7" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1475,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
@@ -1495,18 +5424,28 @@
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="77" t="str">
+      <c r="G8" s="71">
+        <v>6.89</v>
+      </c>
+      <c r="H8" s="32">
+        <v>5</v>
+      </c>
+      <c r="I8" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="81" t="str">
+        <v>34.449999999999996</v>
+      </c>
+      <c r="J8" s="79" t="str">
         <f>IF(ISBLANK(A8),"",SUM(I8:I$50)-SUM(J9:J$50))</f>
         <v/>
       </c>
@@ -1535,21 +5474,33 @@
       <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="77" t="str">
+      <c r="G9" s="71">
+        <v>8.99</v>
+      </c>
+      <c r="H9" s="32">
+        <v>5</v>
+      </c>
+      <c r="I9" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="81" t="str">
+        <v>44.95</v>
+      </c>
+      <c r="J9" s="79">
         <f>IF(ISBLANK(A9),"",SUM(I9:I$50)-SUM(J10:J$50))</f>
-        <v/>
+        <v>135.88000000000011</v>
       </c>
       <c r="K9" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1577,18 +5528,30 @@
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
       <c r="F10" s="25"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="77" t="str">
+      <c r="G10" s="71">
+        <v>12.99</v>
+      </c>
+      <c r="H10" s="32">
+        <v>7</v>
+      </c>
+      <c r="I10" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="81" t="str">
+        <v>90.93</v>
+      </c>
+      <c r="J10" s="79" t="str">
         <f>IF(ISBLANK(A10),"",SUM(I10:I$50)-SUM(J11:J$50))</f>
         <v/>
       </c>
@@ -1617,21 +5580,35 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="77" t="str">
+      <c r="G11" s="71">
+        <v>15.98</v>
+      </c>
+      <c r="H11" s="32">
+        <v>10</v>
+      </c>
+      <c r="I11" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="81" t="str">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="J11" s="79">
         <f>IF(ISBLANK(A11),"",SUM(I11:I$50)-SUM(J12:J$50))</f>
-        <v/>
+        <v>279.99</v>
       </c>
       <c r="K11" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1659,18 +5636,28 @@
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="77" t="str">
+      <c r="G12" s="71">
+        <v>13.46</v>
+      </c>
+      <c r="H12" s="32">
+        <v>5</v>
+      </c>
+      <c r="I12" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="81" t="str">
+        <v>67.300000000000011</v>
+      </c>
+      <c r="J12" s="79" t="str">
         <f>IF(ISBLANK(A12),"",SUM(I12:I$50)-SUM(J13:J$50))</f>
         <v/>
       </c>
@@ -1700,18 +5687,28 @@
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="77" t="str">
+      <c r="G13" s="71">
+        <v>14.3</v>
+      </c>
+      <c r="H13" s="32">
+        <v>3</v>
+      </c>
+      <c r="I13" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="81" t="str">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="J13" s="79" t="str">
         <f>IF(ISBLANK(A13),"",SUM(I13:I$50)-SUM(J14:J$50))</f>
         <v/>
       </c>
@@ -1741,18 +5738,28 @@
     </row>
     <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="77" t="str">
+      <c r="G14" s="71">
+        <v>9.99</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="81" t="str">
+        <v>9.99</v>
+      </c>
+      <c r="J14" s="79" t="str">
         <f>IF(ISBLANK(A14),"",SUM(I14:I$50)-SUM(J15:J$50))</f>
         <v/>
       </c>
@@ -1781,21 +5788,33 @@
       <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="77" t="str">
+      <c r="A15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="71">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="H15" s="32">
+        <v>5</v>
+      </c>
+      <c r="I15" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="81" t="str">
+        <v>89.949999999999989</v>
+      </c>
+      <c r="J15" s="79">
         <f>IF(ISBLANK(A15),"",SUM(I15:I$50)-SUM(J16:J$50))</f>
-        <v/>
+        <v>314.77999999999997</v>
       </c>
       <c r="K15" s="27" t="b">
         <f t="shared" si="1"/>
@@ -1823,18 +5842,28 @@
     </row>
     <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="34">
+        <v>0</v>
+      </c>
       <c r="F16" s="52"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="77" t="str">
+      <c r="G16" s="72">
+        <v>9.98</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="81" t="str">
+        <v>9.98</v>
+      </c>
+      <c r="J16" s="79" t="str">
         <f>IF(ISBLANK(A16),"",SUM(I16:I$50)-SUM(J17:J$50))</f>
         <v/>
       </c>
@@ -1864,18 +5893,28 @@
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
       <c r="F17" s="52"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="77" t="str">
+      <c r="G17" s="72">
+        <v>4.99</v>
+      </c>
+      <c r="H17" s="30">
+        <v>5</v>
+      </c>
+      <c r="I17" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J17" s="81" t="str">
+        <v>24.950000000000003</v>
+      </c>
+      <c r="J17" s="79" t="str">
         <f>IF(ISBLANK(A17),"",SUM(I17:I$50)-SUM(J18:J$50))</f>
         <v/>
       </c>
@@ -1905,18 +5944,28 @@
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
       <c r="F18" s="52"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="77" t="str">
+      <c r="G18" s="72">
+        <v>31.99</v>
+      </c>
+      <c r="H18" s="30">
+        <v>5</v>
+      </c>
+      <c r="I18" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="81" t="str">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="J18" s="79" t="str">
         <f>IF(ISBLANK(A18),"",SUM(I18:I$50)-SUM(J19:J$50))</f>
         <v/>
       </c>
@@ -1945,18 +5994,28 @@
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="34"/>
+      <c r="B19" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
       <c r="F19" s="52"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="77" t="str">
+      <c r="G19" s="72">
+        <v>5.99</v>
+      </c>
+      <c r="H19" s="30">
+        <v>5</v>
+      </c>
+      <c r="I19" s="75">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="81" t="str">
+        <v>29.950000000000003</v>
+      </c>
+      <c r="J19" s="79" t="str">
         <f>IF(ISBLANK(A19),"",SUM(I19:I$50)-SUM(J20:J$50))</f>
         <v/>
       </c>
@@ -1985,21 +6044,34 @@
       <c r="AD19" s="2"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="34"/>
+      <c r="A20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="34">
+        <v>0</v>
+      </c>
       <c r="F20" s="52"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="77" t="str">
+      <c r="G20" s="72">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f>$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="81" t="str">
+      <c r="J20" s="79">
         <f>IF(ISBLANK(A20),"",SUM(I20:I$50)-SUM(J21:J$50))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="27" t="b">
         <f t="shared" si="1"/>
@@ -2027,18 +6099,18 @@
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="33"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="73"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="77" t="str">
+      <c r="I21" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="81" t="str">
+      <c r="J21" s="79" t="str">
         <f>IF(ISBLANK(A21),"",SUM(I21:I$50)-SUM(J22:J$50))</f>
         <v/>
       </c>
@@ -2068,18 +6140,18 @@
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="33"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="73"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="77" t="str">
+      <c r="I22" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="81" t="str">
+      <c r="J22" s="79" t="str">
         <f>IF(ISBLANK(A22),"",SUM(I22:I$50)-SUM(J23:J$50))</f>
         <v/>
       </c>
@@ -2109,18 +6181,18 @@
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="33"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="73"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="77" t="str">
+      <c r="I23" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="81" t="str">
+      <c r="J23" s="79" t="str">
         <f>IF(ISBLANK(A23),"",SUM(I23:I$50)-SUM(J24:J$50))</f>
         <v/>
       </c>
@@ -2150,18 +6222,18 @@
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="33"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="73"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="77" t="str">
+      <c r="I24" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="81" t="str">
+      <c r="J24" s="79" t="str">
         <f>IF(ISBLANK(A24),"",SUM(I24:I$50)-SUM(J25:J$50))</f>
         <v/>
       </c>
@@ -2191,18 +6263,18 @@
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="33"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="73"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="77" t="str">
+      <c r="I25" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="81" t="str">
+      <c r="J25" s="79" t="str">
         <f>IF(ISBLANK(A25),"",SUM(I25:I$50)-SUM(J26:J$50))</f>
         <v/>
       </c>
@@ -2232,18 +6304,18 @@
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="33"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="73"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="77" t="str">
+      <c r="I26" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="81" t="str">
+      <c r="J26" s="79" t="str">
         <f>IF(ISBLANK(A26),"",SUM(I26:I$50)-SUM(J27:J$50))</f>
         <v/>
       </c>
@@ -2273,18 +6345,18 @@
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="33"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="81" t="str">
+      <c r="J27" s="79" t="str">
         <f>IF(ISBLANK(A27),"",SUM(I27:I$50)-SUM(J28:J$50))</f>
         <v/>
       </c>
@@ -2314,18 +6386,18 @@
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="33"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="73"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="81" t="str">
+      <c r="J28" s="79" t="str">
         <f>IF(ISBLANK(A28),"",SUM(I28:I$50)-SUM(J29:J$50))</f>
         <v/>
       </c>
@@ -2355,18 +6427,18 @@
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="33"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="73"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="77" t="str">
+      <c r="I29" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="81" t="str">
+      <c r="J29" s="79" t="str">
         <f>IF(ISBLANK(A29),"",SUM(I29:I$50)-SUM(J30:J$50))</f>
         <v/>
       </c>
@@ -2396,18 +6468,18 @@
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="33"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="73"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="77" t="str">
+      <c r="I30" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="81" t="str">
+      <c r="J30" s="79" t="str">
         <f>IF(ISBLANK(A30),"",SUM(I30:I$50)-SUM(J31:J$50))</f>
         <v/>
       </c>
@@ -2437,18 +6509,18 @@
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="33"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="73"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="77" t="str">
+      <c r="I31" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="81" t="str">
+      <c r="J31" s="79" t="str">
         <f>IF(ISBLANK(A31),"",SUM(I31:I$50)-SUM(J32:J$50))</f>
         <v/>
       </c>
@@ -2478,18 +6550,18 @@
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="33"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="73"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="32"/>
-      <c r="I32" s="77" t="str">
+      <c r="I32" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="81" t="str">
+      <c r="J32" s="79" t="str">
         <f>IF(ISBLANK(A32),"",SUM(I32:I$50)-SUM(J33:J$50))</f>
         <v/>
       </c>
@@ -2519,18 +6591,18 @@
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="33"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="73"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="32"/>
-      <c r="I33" s="77" t="str">
+      <c r="I33" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="81" t="str">
+      <c r="J33" s="79" t="str">
         <f>IF(ISBLANK(A33),"",SUM(I33:I$50)-SUM(J34:J$50))</f>
         <v/>
       </c>
@@ -2560,18 +6632,18 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="33"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="73"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="32"/>
-      <c r="I34" s="77" t="str">
+      <c r="I34" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="81" t="str">
+      <c r="J34" s="79" t="str">
         <f>IF(ISBLANK(A34),"",SUM(I34:I$50)-SUM(J35:J$50))</f>
         <v/>
       </c>
@@ -2601,18 +6673,18 @@
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="33"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="73"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="77" t="str">
+      <c r="I35" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="81" t="str">
+      <c r="J35" s="79" t="str">
         <f>IF(ISBLANK(A35),"",SUM(I35:I$50)-SUM(J36:J$50))</f>
         <v/>
       </c>
@@ -2642,18 +6714,18 @@
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="33"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="73"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="77" t="str">
+      <c r="I36" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="81" t="str">
+      <c r="J36" s="79" t="str">
         <f>IF(ISBLANK(A36),"",SUM(I36:I$50)-SUM(J37:J$50))</f>
         <v/>
       </c>
@@ -2683,18 +6755,18 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="33"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="73"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="32"/>
-      <c r="I37" s="77" t="str">
+      <c r="I37" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="81" t="str">
+      <c r="J37" s="79" t="str">
         <f>IF(ISBLANK(A37),"",SUM(I37:I$50)-SUM(J38:J$50))</f>
         <v/>
       </c>
@@ -2724,18 +6796,18 @@
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
       <c r="E38" s="33"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="73"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="77" t="str">
+      <c r="I38" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="81" t="str">
+      <c r="J38" s="79" t="str">
         <f>IF(ISBLANK(A38),"",SUM(I38:I$50)-SUM(J39:J$50))</f>
         <v/>
       </c>
@@ -2765,18 +6837,18 @@
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="33"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="73"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="77" t="str">
+      <c r="I39" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="81" t="str">
+      <c r="J39" s="79" t="str">
         <f>IF(ISBLANK(A39),"",SUM(I39:I$50)-SUM(J40:J$50))</f>
         <v/>
       </c>
@@ -2806,18 +6878,18 @@
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="33"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="73"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="77" t="str">
+      <c r="I40" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="81" t="str">
+      <c r="J40" s="79" t="str">
         <f>IF(ISBLANK(A40),"",SUM(I40:I$50)-SUM(J41:J$50))</f>
         <v/>
       </c>
@@ -2847,18 +6919,18 @@
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="33"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="73"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="32"/>
-      <c r="I41" s="77" t="str">
+      <c r="I41" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="81" t="str">
+      <c r="J41" s="79" t="str">
         <f>IF(ISBLANK(A41),"",SUM(I41:I$50)-SUM(J42:J$50))</f>
         <v/>
       </c>
@@ -2888,18 +6960,18 @@
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="88"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="33"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="73"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="32"/>
-      <c r="I42" s="77" t="str">
+      <c r="I42" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="81" t="str">
+      <c r="J42" s="79" t="str">
         <f>IF(ISBLANK(A42),"",SUM(I42:I$50)-SUM(J43:J$50))</f>
         <v/>
       </c>
@@ -2929,18 +7001,18 @@
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="88"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="33"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="73"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="77" t="str">
+      <c r="I43" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="81" t="str">
+      <c r="J43" s="79" t="str">
         <f>IF(ISBLANK(A43),"",SUM(I43:I$50)-SUM(J44:J$50))</f>
         <v/>
       </c>
@@ -2970,18 +7042,18 @@
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="33"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="73"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="32"/>
-      <c r="I44" s="77" t="str">
+      <c r="I44" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="81" t="str">
+      <c r="J44" s="79" t="str">
         <f>IF(ISBLANK(A44),"",SUM(I44:I$50)-SUM(J45:J$50))</f>
         <v/>
       </c>
@@ -3011,18 +7083,18 @@
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="33"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="73"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="77" t="str">
+      <c r="I45" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="81" t="str">
+      <c r="J45" s="79" t="str">
         <f>IF(ISBLANK(A45),"",SUM(I45:I$50)-SUM(J46:J$50))</f>
         <v/>
       </c>
@@ -3052,18 +7124,18 @@
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="29"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="88"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="33"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="73"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="77" t="str">
+      <c r="I46" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="81" t="str">
+      <c r="J46" s="79" t="str">
         <f>IF(ISBLANK(A46),"",SUM(I46:I$50)-SUM(J47:J$50))</f>
         <v/>
       </c>
@@ -3093,18 +7165,18 @@
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="88"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="33"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="73"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="77" t="str">
+      <c r="I47" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="81" t="str">
+      <c r="J47" s="79" t="str">
         <f>IF(ISBLANK(A47),"",SUM(I47:I$50)-SUM(J48:J$50))</f>
         <v/>
       </c>
@@ -3134,18 +7206,18 @@
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="33"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="73"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="77" t="str">
+      <c r="I48" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="81" t="str">
+      <c r="J48" s="79" t="str">
         <f>IF(ISBLANK(A48),"",SUM(I48:I$50)-SUM(J49:J$50))</f>
         <v/>
       </c>
@@ -3175,18 +7247,18 @@
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="29"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="33"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="73"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="32"/>
-      <c r="I49" s="77" t="str">
+      <c r="I49" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="81" t="str">
+      <c r="J49" s="79" t="str">
         <f>IF(ISBLANK(A49),"",SUM(I49:I$50)-SUM(J50:J$50))</f>
         <v/>
       </c>
@@ -3216,18 +7288,18 @@
     </row>
     <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="33"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="73"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="77" t="str">
+      <c r="I50" s="75" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="81" t="str">
+      <c r="J50" s="79" t="str">
         <f>IF(ISBLANK(A50),"",SUM(I50:I$50)-SUM(J$50:J51))</f>
         <v/>
       </c>
@@ -3264,8 +7336,8 @@
       <c r="F51" s="41"/>
       <c r="G51" s="42"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="82"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="80"/>
       <c r="K51" s="43"/>
       <c r="L51" s="53"/>
       <c r="M51" s="22"/>
@@ -3296,8 +7368,8 @@
       <c r="F52" s="34"/>
       <c r="G52" s="26"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="83"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="81"/>
       <c r="K52" s="32"/>
       <c r="L52" s="28"/>
       <c r="M52" s="2"/>
@@ -3328,8 +7400,8 @@
       <c r="F53" s="34"/>
       <c r="G53" s="26"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="83"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="81"/>
       <c r="K53" s="32"/>
       <c r="L53" s="28"/>
       <c r="M53" s="2"/>
@@ -3360,8 +7432,8 @@
       <c r="F54" s="34"/>
       <c r="G54" s="26"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="83"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="81"/>
       <c r="K54" s="32"/>
       <c r="L54" s="28"/>
       <c r="M54" s="2"/>
@@ -3393,7 +7465,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="46"/>
       <c r="I55" s="46"/>
-      <c r="J55" s="84"/>
+      <c r="J55" s="82"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
     </row>
@@ -3407,7 +7479,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="46"/>
       <c r="I56" s="46"/>
-      <c r="J56" s="84"/>
+      <c r="J56" s="82"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
     </row>
@@ -3421,7 +7493,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="46"/>
       <c r="I57" s="46"/>
-      <c r="J57" s="84"/>
+      <c r="J57" s="82"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
     </row>
@@ -3435,7 +7507,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="46"/>
       <c r="I58" s="46"/>
-      <c r="J58" s="84"/>
+      <c r="J58" s="82"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
     </row>
@@ -3449,7 +7521,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
-      <c r="J59" s="84"/>
+      <c r="J59" s="82"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
     </row>
@@ -3473,51 +7545,304 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L54">
-    <cfRule type="containsBlanks" dxfId="6" priority="13">
+    <cfRule type="containsBlanks" dxfId="66" priority="79">
       <formula>LEN(TRIM(L2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E50">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="B19:E19 B4:E6 C6:E7 B21:E26 B28:E50 C10:E19">
+    <cfRule type="expression" dxfId="65" priority="70">
       <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="64" priority="71">
       <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="63" priority="72">
       <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J51 B3:J3 B4:I50">
+  <conditionalFormatting sqref="J4:J51 I3:J3 B4:I5 B19:I19 B4:H6 C6:I7 B21:I26 I20 B28:I50 I27 C10:I18 C10:H19 I8:I9">
+    <cfRule type="expression" dxfId="61" priority="68">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J5 A6:A7 A19:J19 B4:H6 C6:J7 A3 I3:J3 A21:J26 I20:J20 A28:J50 I27:J27 C10:J18 C10:H19 A10:A18 I8:J9">
+    <cfRule type="expression" dxfId="60" priority="67">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7 B10:B11">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="64">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="66">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7 B10:B11">
+    <cfRule type="expression" dxfId="55" priority="62">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7 B10:B11">
+    <cfRule type="expression" dxfId="54" priority="61">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B19">
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B19">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B19">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="expression" dxfId="47" priority="45">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E20">
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="42">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:H20">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:H20">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="36">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H27">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27 C27:H27">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8 A8">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H9">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 C9:H9">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>LEFT(INDIRECT("E"&amp;ROW()),1)="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("K"&amp;ROW())=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J50">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(INDIRECT("A"&amp;ROW())))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{CD6656E7-26A7-4730-B389-48BFB19EBC38}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{D26441E4-C4CD-4E85-AA8A-CD4488EF1ACD}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{D5FE01F0-4387-475F-831D-C3858CCB1F8C}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{1D0A20C5-4500-4E62-A9A0-1F3FDB15D315}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Raspberry Pi 4 Model B (4GB)" xr:uid="{4DCC7F8A-CE5E-4B80-B642-6E234632FA82}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{243AC25E-16F9-4A09-90B0-715860E04FC6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{58B8B1C2-A98A-4776-8AA0-1AA61C3A1654}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{CF0B5F20-3A01-41F9-A617-C52CAB341FD8}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{7C61CD39-D09A-4E29-BE16-C0BAD59F2E40}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{347ABD3F-24D3-4232-918C-13D39BB6B542}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{81911AF8-0D5B-43BC-B46B-F657B420D56F}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{D59E12CF-299B-4C07-96D9-C2D546830A2C}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{5C4FB313-05FB-4FB1-9075-70B2C36CE80F}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{5CA3547B-48B6-41A7-9612-0145DD3C2DBE}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{FD1EC548-3ACB-4608-BE68-7BE465665BA7}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{B5EF7311-BD62-423B-B35F-7AF6818E8356}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{D96C9378-C82F-4673-B496-E2B7B4D0E95A}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{DECFBF8B-ECEA-4FF9-A4B1-9391055ACE15}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{8FE03C64-D6FE-42B7-83A1-36186C357B85}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{06BF422A-9E5C-4F09-B2AE-18495247E998}"/>
   </hyperlinks>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="landscape" r:id="rId4"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831FD12-FD55-4610-8589-E186A34E4A0E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3526,13 +7851,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
-        <v>31</v>
+      <c r="A1" s="87" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
-        <v>30</v>
+      <c r="A2" s="87" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +7865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
@@ -3553,18 +7878,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="17">
         <v>84000</v>
@@ -3572,7 +7897,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="17">
         <v>30000</v>
@@ -3580,7 +7905,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="17">
         <v>27500</v>
@@ -3588,7 +7913,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="17">
         <v>12500</v>
@@ -3596,7 +7921,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="17">
         <v>2800</v>
@@ -3604,12 +7929,12 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="17">
         <v>240000</v>
@@ -3617,7 +7942,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="17">
         <v>24000</v>
@@ -3625,7 +7950,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="17">
         <v>79800</v>
@@ -3633,7 +7958,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="17">
         <v>9000</v>
